--- a/Test_Data/OpenEmr.xlsx
+++ b/Test_Data/OpenEmr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Verify_Invalid_credentials_temp" sheetId="1" r:id="rId1"/>
